--- a/results/mnist_training/results_rehearsal_0.5_mnist.xlsx
+++ b/results/mnist_training/results_rehearsal_0.5_mnist.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,13 +464,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8240813993414243</v>
+        <v>0.8180505834023157</v>
       </c>
       <c r="D3">
-        <v>0.2836040258407593</v>
+        <v>0.2970163524150848</v>
       </c>
       <c r="E3">
-        <v>49.31</v>
+        <v>49.905</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -479,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.0009039292894303799</v>
+        <v>0.0008058991074562072</v>
       </c>
       <c r="J3">
-        <v>94.64</v>
+        <v>95.28</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -493,13 +493,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.345968019614617</v>
+        <v>0.3293752693136533</v>
       </c>
       <c r="D4">
-        <v>0.2749379873275757</v>
+        <v>0.2804355025291443</v>
       </c>
       <c r="E4">
-        <v>50.04</v>
+        <v>50.52500000000001</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -508,10 +508,10 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.02320765538215637</v>
+        <v>0.02019487063884735</v>
       </c>
       <c r="J4">
-        <v>3.98</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -522,13 +522,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.2725304615000884</v>
+        <v>0.2551601876318454</v>
       </c>
       <c r="D5">
-        <v>0.2526185214519501</v>
+        <v>0.2573479115962982</v>
       </c>
       <c r="E5">
-        <v>50.665</v>
+        <v>51.205</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -537,10 +537,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0.0006037197533994913</v>
+        <v>0.0005208274260163307</v>
       </c>
       <c r="J5">
-        <v>96.17</v>
+        <v>96.79000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -551,13 +551,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.2417411995927493</v>
+        <v>0.2219414264708758</v>
       </c>
       <c r="D6">
-        <v>0.2378856986761093</v>
+        <v>0.2529357969760895</v>
       </c>
       <c r="E6">
-        <v>51.39</v>
+        <v>50.895</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -566,10 +566,10 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0.0233070246219635</v>
+        <v>0.01963620340824127</v>
       </c>
       <c r="J6">
-        <v>3.91</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -580,13 +580,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.216501587604483</v>
+        <v>0.1987068645159404</v>
       </c>
       <c r="D7">
-        <v>0.2256869822740555</v>
+        <v>0.2289588004350662</v>
       </c>
       <c r="E7">
-        <v>51.33000000000001</v>
+        <v>51.53</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -595,10 +595,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.0004580046445131302</v>
+        <v>0.0003930236503481865</v>
       </c>
       <c r="J7">
-        <v>96.98999999999999</v>
+        <v>97.55</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -609,13 +609,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.1992030363529921</v>
+        <v>0.1843537919223309</v>
       </c>
       <c r="D8">
-        <v>0.2179328352212906</v>
+        <v>0.2360757440328598</v>
       </c>
       <c r="E8">
-        <v>51.525</v>
+        <v>51.885</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -624,10 +624,10 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>0.02303894968032837</v>
+        <v>0.02057044415473938</v>
       </c>
       <c r="J8">
-        <v>4.34</v>
+        <v>4.86</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -638,13 +638,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.1793294241279364</v>
+        <v>0.1734957547734181</v>
       </c>
       <c r="D9">
-        <v>0.2141762971878052</v>
+        <v>0.239805206656456</v>
       </c>
       <c r="E9">
-        <v>51.73</v>
+        <v>52.25</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -653,10 +653,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0.0003867779973894358</v>
+        <v>0.0003483087116852403</v>
       </c>
       <c r="J9">
-        <v>97.45</v>
+        <v>97.73</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -667,13 +667,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.1742654138555129</v>
+        <v>0.1656918397794167</v>
       </c>
       <c r="D10">
-        <v>0.1970483064651489</v>
+        <v>0.2240337729454041</v>
       </c>
       <c r="E10">
-        <v>51.91</v>
+        <v>52.37</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -682,10 +682,10 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>0.02384677510261536</v>
+        <v>0.01898004720211029</v>
       </c>
       <c r="J10">
-        <v>5.33</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -696,13 +696,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.1649799433847269</v>
+        <v>0.1595706476146976</v>
       </c>
       <c r="D11">
-        <v>0.2093269228935242</v>
+        <v>0.2350124567747116</v>
       </c>
       <c r="E11">
-        <v>52.32</v>
+        <v>52.94</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -711,10 +711,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>0.0003558579908683896</v>
+        <v>0.0003109633985906839</v>
       </c>
       <c r="J11">
-        <v>97.68000000000001</v>
+        <v>97.98</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -725,13 +725,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.1542276810233792</v>
+        <v>0.1508022128790617</v>
       </c>
       <c r="D12">
-        <v>0.2197765409946442</v>
+        <v>0.2337392866611481</v>
       </c>
       <c r="E12">
-        <v>52.67</v>
+        <v>54.225</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -740,10 +740,10 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>0.02355403733253479</v>
+        <v>0.01986190440654755</v>
       </c>
       <c r="J12">
-        <v>4.98</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -754,13 +754,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.1497878224526842</v>
+        <v>0.1443568522731463</v>
       </c>
       <c r="D13">
-        <v>0.2088297009468079</v>
+        <v>0.2470901161432266</v>
       </c>
       <c r="E13">
-        <v>52.56</v>
+        <v>55.055</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -769,10 +769,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>0.0003305175133049488</v>
+        <v>0.0002745812557637691</v>
       </c>
       <c r="J13">
-        <v>97.84</v>
+        <v>98.28</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -783,13 +783,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.1471618486444155</v>
+        <v>0.1390354903166493</v>
       </c>
       <c r="D14">
-        <v>0.1944941729307175</v>
+        <v>0.2550788819789886</v>
       </c>
       <c r="E14">
-        <v>52.9</v>
+        <v>53.69</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -798,10 +798,10 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>0.02144626486301422</v>
+        <v>0.01815716228485107</v>
       </c>
       <c r="J14">
-        <v>5.21</v>
+        <v>5.49</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -812,13 +812,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.1404325020437439</v>
+        <v>0.1393192525704702</v>
       </c>
       <c r="D15">
-        <v>0.2000990509986877</v>
+        <v>0.2515974938869476</v>
       </c>
       <c r="E15">
-        <v>53.355</v>
+        <v>53.605</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -827,10 +827,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>0.000287179453484714</v>
+        <v>0.0002611761170439422</v>
       </c>
       <c r="J15">
-        <v>98.14</v>
+        <v>98.22</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -841,13 +841,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.1358488401522239</v>
+        <v>0.1485033691426118</v>
       </c>
       <c r="D16">
-        <v>0.2183597683906555</v>
+        <v>0.234057292342186</v>
       </c>
       <c r="E16">
-        <v>52.675</v>
+        <v>52.44</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -856,10 +856,10 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>0.02370428562164307</v>
+        <v>0.01875602560043335</v>
       </c>
       <c r="J16">
-        <v>5.32</v>
+        <v>6.28</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -870,13 +870,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.1314605077480276</v>
+        <v>0.14538869595776</v>
       </c>
       <c r="D17">
-        <v>0.1980762034654617</v>
+        <v>0.2326580882072449</v>
       </c>
       <c r="E17">
-        <v>53.415</v>
+        <v>52.88999999999999</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -885,10 +885,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>0.000269695674488321</v>
+        <v>0.000237687405385077</v>
       </c>
       <c r="J17">
-        <v>98.28</v>
+        <v>98.43000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -899,13 +899,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.1327361008773247</v>
+        <v>0.1448682928706209</v>
       </c>
       <c r="D18">
-        <v>0.2034774273633957</v>
+        <v>0.2331859618425369</v>
       </c>
       <c r="E18">
-        <v>53.675</v>
+        <v>53.215</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -914,10 +914,10 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>0.02198987545967102</v>
+        <v>0.01936898021697998</v>
       </c>
       <c r="J18">
-        <v>5.54</v>
+        <v>6.31</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -928,13 +928,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.1249780540789167</v>
+        <v>0.1414544821158051</v>
       </c>
       <c r="D19">
-        <v>0.2224202305078506</v>
+        <v>0.2350134253501892</v>
       </c>
       <c r="E19">
-        <v>53.09</v>
+        <v>53.29499999999999</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -943,10 +943,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>0.0002602360816672444</v>
+        <v>0.000236719414498657</v>
       </c>
       <c r="J19">
-        <v>98.36</v>
+        <v>98.55</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -957,13 +957,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.1312212830906113</v>
+        <v>0.1416500648359458</v>
       </c>
       <c r="D20">
-        <v>0.2011619359254837</v>
+        <v>0.2321903854608536</v>
       </c>
       <c r="E20">
-        <v>52.805</v>
+        <v>53.355</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -972,10 +972,10 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>0.0205461136341095</v>
+        <v>0.01980688610076904</v>
       </c>
       <c r="J20">
-        <v>6.28</v>
+        <v>7.33</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -986,13 +986,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.1274697136878967</v>
+        <v>0.1551336138943831</v>
       </c>
       <c r="D21">
-        <v>0.1922122538089752</v>
+        <v>0.2284319996833801</v>
       </c>
       <c r="E21">
-        <v>52.73</v>
+        <v>52.66</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>0.0002324710963759571</v>
+        <v>0.0002231153581291437</v>
       </c>
       <c r="J21">
-        <v>98.52</v>
+        <v>98.58</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1015,13 +1015,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.1263916126887004</v>
+        <v>0.1502104991550247</v>
       </c>
       <c r="D22">
-        <v>0.1993571221828461</v>
+        <v>0.2305993884801865</v>
       </c>
       <c r="E22">
-        <v>52.795</v>
+        <v>52.425</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -1030,10 +1030,10 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.02028509120941162</v>
+        <v>0.01971803576946259</v>
       </c>
       <c r="J22">
-        <v>6.82</v>
+        <v>9.869999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1044,13 +1044,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.1277302884558837</v>
+        <v>0.1486617307861646</v>
       </c>
       <c r="D23">
-        <v>0.1988248229026794</v>
+        <v>0.2322932630777359</v>
       </c>
       <c r="E23">
-        <v>52.97</v>
+        <v>52.77</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1059,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>0.000226770415622741</v>
+        <v>0.0002111984985182062</v>
       </c>
       <c r="J23">
-        <v>98.55</v>
+        <v>98.70999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1073,13 +1073,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.124044490121305</v>
+        <v>0.1475535368919373</v>
       </c>
       <c r="D24">
-        <v>0.1954516917467117</v>
+        <v>0.2334762066602707</v>
       </c>
       <c r="E24">
-        <v>52.935</v>
+        <v>52.87</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -1088,10 +1088,10 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>0.02044391436576843</v>
+        <v>0.02046142973899841</v>
       </c>
       <c r="J24">
-        <v>6.57</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1102,13 +1102,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.1224819045017163</v>
+        <v>0.1437502741068602</v>
       </c>
       <c r="D25">
-        <v>0.1972063779830933</v>
+        <v>0.234156146645546</v>
       </c>
       <c r="E25">
-        <v>53.045</v>
+        <v>52.765</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1117,10 +1117,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>0.0002116155465133488</v>
+        <v>0.0002043954392662272</v>
       </c>
       <c r="J25">
-        <v>98.70999999999999</v>
+        <v>98.67</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1131,13 +1131,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.1224375547468662</v>
+        <v>0.1581344100087881</v>
       </c>
       <c r="D26">
-        <v>0.2008337527513504</v>
+        <v>0.2243896424770355</v>
       </c>
       <c r="E26">
-        <v>52.805</v>
+        <v>52.56</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -1146,10 +1146,10 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>0.01915670740604401</v>
+        <v>0.0198397873878479</v>
       </c>
       <c r="J26">
-        <v>7.09</v>
+        <v>8.710000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1160,13 +1160,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.1276000998417536</v>
+        <v>0.1515068529297908</v>
       </c>
       <c r="D27">
-        <v>0.1959272623062134</v>
+        <v>0.2252143919467926</v>
       </c>
       <c r="E27">
-        <v>52.88</v>
+        <v>52.7</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1175,10 +1175,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>0.0002065461969003081</v>
+        <v>0.0001975934280082583</v>
       </c>
       <c r="J27">
-        <v>98.77</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1189,13 +1189,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.1277878158167005</v>
+        <v>0.1560110599671801</v>
       </c>
       <c r="D28">
-        <v>0.1940586268901825</v>
+        <v>0.2256773114204407</v>
       </c>
       <c r="E28">
-        <v>52.825</v>
+        <v>52.715</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1204,10 +1204,10 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>0.0200731892824173</v>
+        <v>0.01898733439445496</v>
       </c>
       <c r="J28">
-        <v>7.94</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1218,13 +1218,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.1253935601313909</v>
+        <v>0.152655299877127</v>
       </c>
       <c r="D29">
-        <v>0.1948240250349045</v>
+        <v>0.227014347910881</v>
       </c>
       <c r="E29">
-        <v>52.7</v>
+        <v>52.655</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1233,10 +1233,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>0.0002017508742865175</v>
+        <v>0.0002270108243916184</v>
       </c>
       <c r="J29">
-        <v>98.70999999999999</v>
+        <v>98.52</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1247,13 +1247,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.1263733381032944</v>
+        <v>0.1494801204279065</v>
       </c>
       <c r="D30">
-        <v>0.1954756379127502</v>
+        <v>0.227275550365448</v>
       </c>
       <c r="E30">
-        <v>52.855</v>
+        <v>52.625</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1262,10 +1262,10 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>0.02034161882400513</v>
+        <v>0.01954731690883637</v>
       </c>
       <c r="J30">
-        <v>6.64</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1276,13 +1276,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.1218477083245913</v>
+        <v>0.1572028545786937</v>
       </c>
       <c r="D31">
-        <v>0.1970239579677582</v>
+        <v>0.2240446656942368</v>
       </c>
       <c r="E31">
-        <v>52.925</v>
+        <v>52.445</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1291,10 +1291,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>0.0001839870516676456</v>
+        <v>0.0002230266439728439</v>
       </c>
       <c r="J31">
-        <v>98.84999999999999</v>
+        <v>98.56999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1305,13 +1305,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.1259999282782276</v>
+        <v>0.1590706611176332</v>
       </c>
       <c r="D32">
-        <v>0.1939982920885086</v>
+        <v>0.2239599376916885</v>
       </c>
       <c r="E32">
-        <v>52.765</v>
+        <v>52.475</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -1320,10 +1320,10 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>0.01946845531463623</v>
+        <v>0.01945271332263946</v>
       </c>
       <c r="J32">
-        <v>7.98</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1334,13 +1334,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.123115157050391</v>
+        <v>0.1583972866584857</v>
       </c>
       <c r="D33">
-        <v>0.1949568539857864</v>
+        <v>0.2240775227546692</v>
       </c>
       <c r="E33">
-        <v>52.78</v>
+        <v>52.5</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1349,10 +1349,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>0.0001829662937670946</v>
+        <v>0.0002241934228688478</v>
       </c>
       <c r="J33">
-        <v>98.94</v>
+        <v>98.54000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1363,13 +1363,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.1247286388402184</v>
+        <v>0.1585409683610002</v>
       </c>
       <c r="D34">
-        <v>0.1950400471687317</v>
+        <v>0.2241023778915405</v>
       </c>
       <c r="E34">
-        <v>52.76000000000001</v>
+        <v>52.52</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -1378,10 +1378,10 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>0.01986789889335632</v>
+        <v>0.01942933497428894</v>
       </c>
       <c r="J34">
-        <v>8.41</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1392,13 +1392,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.127051643691957</v>
+        <v>0.1586146458983421</v>
       </c>
       <c r="D35">
-        <v>0.1953618228435516</v>
+        <v>0.2242975234985352</v>
       </c>
       <c r="E35">
-        <v>52.81</v>
+        <v>52.55</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1407,10 +1407,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>0.0001778797309845686</v>
+        <v>0.0002175978104583919</v>
       </c>
       <c r="J35">
-        <v>98.91</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1421,13 +1421,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.1250565926978985</v>
+        <v>0.1542649027084311</v>
       </c>
       <c r="D36">
-        <v>0.1957953423261642</v>
+        <v>0.2245567291975021</v>
       </c>
       <c r="E36">
-        <v>52.77</v>
+        <v>52.6</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -1436,10 +1436,10 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>0.01977282993793487</v>
+        <v>0.01927883026599884</v>
       </c>
       <c r="J36">
-        <v>7.27</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1450,13 +1450,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.1256843810901046</v>
+        <v>0.1526230370377501</v>
       </c>
       <c r="D37">
-        <v>0.1927237510681152</v>
+        <v>0.2247123569250107</v>
       </c>
       <c r="E37">
-        <v>52.715</v>
+        <v>52.61</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1465,28 +1465,13 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>0.0001988383473828435</v>
+        <v>0.0002147790384013206</v>
       </c>
       <c r="J37">
-        <v>98.76000000000001</v>
+        <v>98.54000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38">
-        <v>36</v>
-      </c>
-      <c r="C38">
-        <v>0.1302881906057398</v>
-      </c>
-      <c r="D38">
-        <v>0.1930963695049286</v>
-      </c>
-      <c r="E38">
-        <v>52.715</v>
-      </c>
       <c r="G38">
         <v>2</v>
       </c>
@@ -1494,28 +1479,13 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>0.02044194750785827</v>
+        <v>0.01958618466854095</v>
       </c>
       <c r="J38">
-        <v>6.85</v>
+        <v>8.17</v>
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39">
-        <v>37</v>
-      </c>
-      <c r="C39">
-        <v>0.1265345913544297</v>
-      </c>
-      <c r="D39">
-        <v>0.1934337466955185</v>
-      </c>
-      <c r="E39">
-        <v>52.70999999999999</v>
-      </c>
       <c r="G39">
         <v>1</v>
       </c>
@@ -1523,28 +1493,13 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>0.0001955166525673121</v>
+        <v>0.0002318281823769212</v>
       </c>
       <c r="J39">
-        <v>98.76000000000001</v>
+        <v>98.48999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40">
-        <v>38</v>
-      </c>
-      <c r="C40">
-        <v>0.1258856599777937</v>
-      </c>
-      <c r="D40">
-        <v>0.1936561614274979</v>
-      </c>
-      <c r="E40">
-        <v>52.745</v>
-      </c>
       <c r="G40">
         <v>2</v>
       </c>
@@ -1552,28 +1507,13 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>0.02118069753646851</v>
+        <v>0.01931532897949219</v>
       </c>
       <c r="J40">
-        <v>6.7</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41">
-        <v>39</v>
-      </c>
-      <c r="C41">
-        <v>0.123539055523773</v>
-      </c>
-      <c r="D41">
-        <v>0.1937993615865707</v>
-      </c>
-      <c r="E41">
-        <v>52.745</v>
-      </c>
       <c r="G41">
         <v>1</v>
       </c>
@@ -1581,10 +1521,10 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>0.0001904079581610858</v>
+        <v>0.000229216084536165</v>
       </c>
       <c r="J41">
-        <v>98.78</v>
+        <v>98.51000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1595,10 +1535,10 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>0.02042111823558808</v>
+        <v>0.01937728316783905</v>
       </c>
       <c r="J42">
-        <v>6.81</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1609,10 +1549,10 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>0.0001904944604029879</v>
+        <v>0.0002289703813381493</v>
       </c>
       <c r="J43">
-        <v>98.8</v>
+        <v>98.48999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1623,10 +1563,10 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>0.02055318372249603</v>
+        <v>0.0195339373588562</v>
       </c>
       <c r="J44">
-        <v>7.14</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1637,10 +1577,10 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>0.0001853666457813233</v>
+        <v>0.0002268188424408436</v>
       </c>
       <c r="J45">
-        <v>98.76000000000001</v>
+        <v>98.52</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1651,10 +1591,10 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>0.0205259537935257</v>
+        <v>0.01943725492954254</v>
       </c>
       <c r="J46">
-        <v>7.11</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1665,10 +1605,10 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>0.0001817022181116045</v>
+        <v>0.0002258705649524927</v>
       </c>
       <c r="J47">
-        <v>98.78</v>
+        <v>98.53</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1679,10 +1619,10 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>0.02047709081172943</v>
+        <v>0.01953634903430939</v>
       </c>
       <c r="J48">
-        <v>7.31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="7:10">
@@ -1693,10 +1633,10 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>0.0001792422348633409</v>
+        <v>0.0002345142001286149</v>
       </c>
       <c r="J49">
-        <v>98.84999999999999</v>
+        <v>98.45999999999999</v>
       </c>
     </row>
     <row r="50" spans="7:10">
@@ -1707,10 +1647,10 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>0.02055315797328949</v>
+        <v>0.01932829093933106</v>
       </c>
       <c r="J50">
-        <v>6.76</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="51" spans="7:10">
@@ -1721,10 +1661,10 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>0.0001924309677444398</v>
+        <v>0.0002334479220211506</v>
       </c>
       <c r="J51">
-        <v>98.75</v>
+        <v>98.45999999999999</v>
       </c>
     </row>
     <row r="52" spans="7:10">
@@ -1735,10 +1675,10 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>0.02055155129432678</v>
+        <v>0.01937802038192749</v>
       </c>
       <c r="J52">
-        <v>7.01</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="53" spans="7:10">
@@ -1749,10 +1689,10 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>0.0001911226286552847</v>
+        <v>0.0002326871840283275</v>
       </c>
       <c r="J53">
-        <v>98.73999999999999</v>
+        <v>98.48</v>
       </c>
     </row>
     <row r="54" spans="7:10">
@@ -1763,10 +1703,10 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>0.02054372038841248</v>
+        <v>0.01943278107643127</v>
       </c>
       <c r="J54">
-        <v>6.91</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="55" spans="7:10">
@@ -1777,10 +1717,10 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>0.0001911403725855052</v>
+        <v>0.0002320348507724702</v>
       </c>
       <c r="J55">
-        <v>98.73999999999999</v>
+        <v>98.48</v>
       </c>
     </row>
     <row r="56" spans="7:10">
@@ -1791,10 +1731,10 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>0.02056061387062073</v>
+        <v>0.01945821359157562</v>
       </c>
       <c r="J56">
-        <v>6.66</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="57" spans="7:10">
@@ -1805,10 +1745,10 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>0.0001904476972296834</v>
+        <v>0.0002319379008375108</v>
       </c>
       <c r="J57">
-        <v>98.76000000000001</v>
+        <v>98.48999999999999</v>
       </c>
     </row>
     <row r="58" spans="7:10">
@@ -1819,10 +1759,10 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>0.02036495225429535</v>
+        <v>0.01949609522819519</v>
       </c>
       <c r="J58">
-        <v>6.95</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="59" spans="7:10">
@@ -1833,10 +1773,10 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>0.0001904671700671315</v>
+        <v>0.0002367485851049423</v>
       </c>
       <c r="J59">
-        <v>98.75</v>
+        <v>98.44</v>
       </c>
     </row>
     <row r="60" spans="7:10">
@@ -1847,10 +1787,10 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>0.02052685699462891</v>
+        <v>0.01935735468864441</v>
       </c>
       <c r="J60">
-        <v>7.1</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="61" spans="7:10">
@@ -1861,10 +1801,10 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>0.0001938478750176728</v>
+        <v>0.0002360142167657614</v>
       </c>
       <c r="J61">
-        <v>98.73999999999999</v>
+        <v>98.47</v>
       </c>
     </row>
     <row r="62" spans="7:10">
@@ -1875,10 +1815,10 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>0.02101698298454285</v>
+        <v>0.01933705766201019</v>
       </c>
       <c r="J62">
-        <v>6.79</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="63" spans="7:10">
@@ -1889,10 +1829,10 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>0.0001929963514208794</v>
+        <v>0.0002354672191664577</v>
       </c>
       <c r="J63">
-        <v>98.76000000000001</v>
+        <v>98.45999999999999</v>
       </c>
     </row>
     <row r="64" spans="7:10">
@@ -1903,10 +1843,10 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>0.02089924833774567</v>
+        <v>0.01932839114665985</v>
       </c>
       <c r="J64">
-        <v>6.8</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="65" spans="7:10">
@@ -1917,10 +1857,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>0.0001923781931400299</v>
+        <v>0.0002350369271822274</v>
       </c>
       <c r="J65">
-        <v>98.73</v>
+        <v>98.44</v>
       </c>
     </row>
     <row r="66" spans="7:10">
@@ -1931,10 +1871,10 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>0.02088633940219879</v>
+        <v>0.01932364044189453</v>
       </c>
       <c r="J66">
-        <v>6.79</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="67" spans="7:10">
@@ -1945,10 +1885,10 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>0.0001917603980749846</v>
+        <v>0.0002346695521846414</v>
       </c>
       <c r="J67">
-        <v>98.73999999999999</v>
+        <v>98.45</v>
       </c>
     </row>
     <row r="68" spans="7:10">
@@ -1959,10 +1899,10 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>0.02079100458621979</v>
+        <v>0.01931417915821075</v>
       </c>
       <c r="J68">
-        <v>6.88</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="69" spans="7:10">
@@ -1973,10 +1913,10 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>0.0001913393767550588</v>
+        <v>0.0002343564992770553</v>
       </c>
       <c r="J69">
-        <v>98.73</v>
+        <v>98.45</v>
       </c>
     </row>
     <row r="70" spans="7:10">
@@ -1987,10 +1927,10 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>0.02075861110687256</v>
+        <v>0.01931080584526062</v>
       </c>
       <c r="J70">
-        <v>6.81</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="71" spans="7:10">
@@ -2001,10 +1941,10 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>0.0001950362709816545</v>
+        <v>0.0002340117759071291</v>
       </c>
       <c r="J71">
-        <v>98.76000000000001</v>
+        <v>98.45999999999999</v>
       </c>
     </row>
     <row r="72" spans="7:10">
@@ -2015,122 +1955,10 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>0.02112576885223389</v>
+        <v>0.01931749088764191</v>
       </c>
       <c r="J72">
-        <v>6.67</v>
-      </c>
-    </row>
-    <row r="73" spans="7:10">
-      <c r="G73">
-        <v>1</v>
-      </c>
-      <c r="H73">
-        <v>36</v>
-      </c>
-      <c r="I73">
-        <v>0.0001946431942749768</v>
-      </c>
-      <c r="J73">
-        <v>98.75</v>
-      </c>
-    </row>
-    <row r="74" spans="7:10">
-      <c r="G74">
-        <v>2</v>
-      </c>
-      <c r="H74">
-        <v>36</v>
-      </c>
-      <c r="I74">
-        <v>0.021081822514534</v>
-      </c>
-      <c r="J74">
-        <v>6.68</v>
-      </c>
-    </row>
-    <row r="75" spans="7:10">
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="H75">
-        <v>37</v>
-      </c>
-      <c r="I75">
-        <v>0.0001943225454073399</v>
-      </c>
-      <c r="J75">
-        <v>98.73999999999999</v>
-      </c>
-    </row>
-    <row r="76" spans="7:10">
-      <c r="G76">
-        <v>2</v>
-      </c>
-      <c r="H76">
-        <v>37</v>
-      </c>
-      <c r="I76">
-        <v>0.02105036766529083</v>
-      </c>
-      <c r="J76">
-        <v>6.68</v>
-      </c>
-    </row>
-    <row r="77" spans="7:10">
-      <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <v>38</v>
-      </c>
-      <c r="I77">
-        <v>0.0001940023588016629</v>
-      </c>
-      <c r="J77">
-        <v>98.75</v>
-      </c>
-    </row>
-    <row r="78" spans="7:10">
-      <c r="G78">
-        <v>2</v>
-      </c>
-      <c r="H78">
-        <v>38</v>
-      </c>
-      <c r="I78">
-        <v>0.02102723536491394</v>
-      </c>
-      <c r="J78">
-        <v>6.74</v>
-      </c>
-    </row>
-    <row r="79" spans="7:10">
-      <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="H79">
-        <v>39</v>
-      </c>
-      <c r="I79">
-        <v>0.0001937358235474676</v>
-      </c>
-      <c r="J79">
-        <v>98.75</v>
-      </c>
-    </row>
-    <row r="80" spans="7:10">
-      <c r="G80">
-        <v>2</v>
-      </c>
-      <c r="H80">
-        <v>39</v>
-      </c>
-      <c r="I80">
-        <v>0.02100992660522461</v>
-      </c>
-      <c r="J80">
-        <v>6.74</v>
+        <v>6.76</v>
       </c>
     </row>
   </sheetData>
@@ -2144,7 +1972,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K122"/>
+  <dimension ref="A1:K88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2203,13 +2031,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9248830404546525</v>
+        <v>0.9318830723232693</v>
       </c>
       <c r="D3">
-        <v>0.4495265185832977</v>
+        <v>0.5860387086868286</v>
       </c>
       <c r="E3">
-        <v>86.84999999999999</v>
+        <v>86.59</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -2218,10 +2046,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.000389022858068347</v>
+        <v>0.0004400387035682797</v>
       </c>
       <c r="J3">
-        <v>97.68000000000001</v>
+        <v>97.25</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2232,13 +2060,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.6322632439931234</v>
+        <v>0.6471754415167703</v>
       </c>
       <c r="D4">
-        <v>0.3987323641777039</v>
+        <v>0.5079121589660645</v>
       </c>
       <c r="E4">
-        <v>88.69</v>
+        <v>88.285</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2247,10 +2075,10 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.003342919903993607</v>
+        <v>0.003290482521057129</v>
       </c>
       <c r="J4">
-        <v>76.02</v>
+        <v>75.93000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2261,13 +2089,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.5709988264242808</v>
+        <v>0.5886773828003141</v>
       </c>
       <c r="D5">
-        <v>0.3627196550369263</v>
+        <v>0.4783269166946411</v>
       </c>
       <c r="E5">
-        <v>89.16500000000001</v>
+        <v>89.395</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2276,10 +2104,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0.0003749350927770138</v>
+        <v>0.000388925863057375</v>
       </c>
       <c r="J5">
-        <v>97.81</v>
+        <v>97.55</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2290,13 +2118,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.5429143923521041</v>
+        <v>0.5506638438834084</v>
       </c>
       <c r="D6">
-        <v>0.3359771072864532</v>
+        <v>0.4640328884124756</v>
       </c>
       <c r="E6">
-        <v>90.05</v>
+        <v>89.47499999999999</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2305,10 +2133,10 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0.002846475586295128</v>
+        <v>0.002842642024159432</v>
       </c>
       <c r="J6">
-        <v>79.56999999999999</v>
+        <v>79.02</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2319,13 +2147,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.5170485450824102</v>
+        <v>0.5303059724966684</v>
       </c>
       <c r="D7">
-        <v>0.3131826817989349</v>
+        <v>0.4434835910797119</v>
       </c>
       <c r="E7">
-        <v>90.47499999999999</v>
+        <v>90.17</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2334,10 +2162,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.0003689494799822569</v>
+        <v>0.0003615446455776692</v>
       </c>
       <c r="J7">
-        <v>97.79000000000001</v>
+        <v>97.70999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2348,13 +2176,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.5027185003625022</v>
+        <v>0.5126712686485715</v>
       </c>
       <c r="D8">
-        <v>0.2867370247840881</v>
+        <v>0.4465955495834351</v>
       </c>
       <c r="E8">
-        <v>90.685</v>
+        <v>90.41499999999999</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2363,10 +2191,10 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>0.002612288811802864</v>
+        <v>0.002648785731196404</v>
       </c>
       <c r="J8">
-        <v>80.54000000000001</v>
+        <v>81.08</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2377,13 +2205,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.4861631763643688</v>
+        <v>0.5020241243971719</v>
       </c>
       <c r="D9">
-        <v>0.2778937518596649</v>
+        <v>0.4437797665596008</v>
       </c>
       <c r="E9">
-        <v>91.06</v>
+        <v>90.69499999999999</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -2392,10 +2220,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0.000356991446390748</v>
+        <v>0.0003690508561208844</v>
       </c>
       <c r="J9">
-        <v>97.8</v>
+        <v>97.65000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2406,13 +2234,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4755654678079817</v>
+        <v>0.4895320165819592</v>
       </c>
       <c r="D10">
-        <v>0.2777310311794281</v>
+        <v>0.430191695690155</v>
       </c>
       <c r="E10">
-        <v>91.035</v>
+        <v>90.905</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -2421,10 +2249,10 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>0.002457127773761749</v>
+        <v>0.002516148638725281</v>
       </c>
       <c r="J10">
-        <v>82.3</v>
+        <v>81.3</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2435,13 +2263,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.4666840679115719</v>
+        <v>0.4757144184245004</v>
       </c>
       <c r="D11">
-        <v>0.2575753331184387</v>
+        <v>0.4048499166965485</v>
       </c>
       <c r="E11">
-        <v>91.435</v>
+        <v>91.205</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -2450,10 +2278,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>0.0003331389239057898</v>
+        <v>0.0003526176845654845</v>
       </c>
       <c r="J11">
-        <v>97.87</v>
+        <v>97.81</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2464,13 +2292,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.4598352424965965</v>
+        <v>0.4695528619819217</v>
       </c>
       <c r="D12">
-        <v>0.2622181177139282</v>
+        <v>0.3971236348152161</v>
       </c>
       <c r="E12">
-        <v>91.48</v>
+        <v>91.25999999999999</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2479,10 +2307,10 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>0.002350107461214065</v>
+        <v>0.002405945971608162</v>
       </c>
       <c r="J12">
-        <v>83.08</v>
+        <v>82.53</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2493,13 +2321,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.4514894014265802</v>
+        <v>0.4627143200238546</v>
       </c>
       <c r="D13">
-        <v>0.2582762539386749</v>
+        <v>0.3783781826496124</v>
       </c>
       <c r="E13">
-        <v>91.395</v>
+        <v>91.435</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -2508,10 +2336,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>0.0003601027252152562</v>
+        <v>0.0003401769949123263</v>
       </c>
       <c r="J13">
-        <v>97.67</v>
+        <v>97.81999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2522,13 +2350,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.4469301058186425</v>
+        <v>0.4570081059800254</v>
       </c>
       <c r="D14">
-        <v>0.2604579627513885</v>
+        <v>0.3822521269321442</v>
       </c>
       <c r="E14">
-        <v>91.735</v>
+        <v>91.72499999999999</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -2537,10 +2365,10 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>0.002248763790726662</v>
+        <v>0.002345224538445473</v>
       </c>
       <c r="J14">
-        <v>83.7</v>
+        <v>83.01000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2551,13 +2379,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.4426713669962353</v>
+        <v>0.4478178362051646</v>
       </c>
       <c r="D15">
-        <v>0.2456706166267395</v>
+        <v>0.390007495880127</v>
       </c>
       <c r="E15">
-        <v>91.81</v>
+        <v>91.63</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2566,10 +2394,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>0.0003464261854067445</v>
+        <v>0.0003374255776405335</v>
       </c>
       <c r="J15">
-        <v>97.79000000000001</v>
+        <v>97.94</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2580,13 +2408,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.4380290248658922</v>
+        <v>0.4404297729995515</v>
       </c>
       <c r="D16">
-        <v>0.2293087840080261</v>
+        <v>0.4006529450416565</v>
       </c>
       <c r="E16">
-        <v>91.8</v>
+        <v>91.755</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -2595,10 +2423,10 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>0.002207382568717003</v>
+        <v>0.002261455422639847</v>
       </c>
       <c r="J16">
-        <v>84.33</v>
+        <v>83.45</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2609,13 +2437,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.436097735563914</v>
+        <v>0.4354456016752455</v>
       </c>
       <c r="D17">
-        <v>0.2406897246837616</v>
+        <v>0.3685102760791779</v>
       </c>
       <c r="E17">
-        <v>91.955</v>
+        <v>91.84999999999999</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2624,10 +2452,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>0.0003403453024104238</v>
+        <v>0.0003219240491278469</v>
       </c>
       <c r="J17">
-        <v>97.88</v>
+        <v>98.02</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2638,13 +2466,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.4301488188240263</v>
+        <v>0.4324492965804206</v>
       </c>
       <c r="D18">
-        <v>0.244797483086586</v>
+        <v>0.3591468334197998</v>
       </c>
       <c r="E18">
-        <v>92.005</v>
+        <v>92.065</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2653,10 +2481,10 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>0.002132886129617691</v>
+        <v>0.002213960179686547</v>
       </c>
       <c r="J18">
-        <v>84.19</v>
+        <v>83.79000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2667,13 +2495,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.4254862627718184</v>
+        <v>0.4312408220767975</v>
       </c>
       <c r="D19">
-        <v>0.2370045483112335</v>
+        <v>0.4001093804836273</v>
       </c>
       <c r="E19">
-        <v>92.06999999999999</v>
+        <v>91.94999999999999</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2682,10 +2510,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>0.0003360321475192905</v>
+        <v>0.0003283434210345149</v>
       </c>
       <c r="J19">
-        <v>97.93000000000001</v>
+        <v>98.05</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2696,13 +2524,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.4217750272817082</v>
+        <v>0.4270937290125423</v>
       </c>
       <c r="D20">
-        <v>0.2417901158332825</v>
+        <v>0.3667205274105072</v>
       </c>
       <c r="E20">
-        <v>92.05500000000001</v>
+        <v>92.11000000000001</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2711,10 +2539,10 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>0.002083016788959503</v>
+        <v>0.002172140765190125</v>
       </c>
       <c r="J20">
-        <v>84.94</v>
+        <v>84.36</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2725,13 +2553,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.4184550129373868</v>
+        <v>0.4239322613345252</v>
       </c>
       <c r="D21">
-        <v>0.2143497914075851</v>
+        <v>0.3593979179859161</v>
       </c>
       <c r="E21">
-        <v>92.14</v>
+        <v>92.16</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2740,10 +2568,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>0.0003523036414757371</v>
+        <v>0.0003215382240712643</v>
       </c>
       <c r="J21">
-        <v>97.78</v>
+        <v>97.92</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2754,13 +2582,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.4180007055732939</v>
+        <v>0.4229321214225557</v>
       </c>
       <c r="D22">
-        <v>0.2242490351200104</v>
+        <v>0.3612479269504547</v>
       </c>
       <c r="E22">
-        <v>92.32499999999999</v>
+        <v>92.16499999999999</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2769,10 +2597,10 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.002050486066937447</v>
+        <v>0.002101944896578789</v>
       </c>
       <c r="J22">
-        <v>85.18000000000001</v>
+        <v>84.59999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2783,13 +2611,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.4131818350487285</v>
+        <v>0.4173755571908421</v>
       </c>
       <c r="D23">
-        <v>0.2150908410549164</v>
+        <v>0.3720969557762146</v>
       </c>
       <c r="E23">
-        <v>92.31</v>
+        <v>92.27000000000001</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2798,10 +2626,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>0.0003384106536395848</v>
+        <v>0.0003236541330814362</v>
       </c>
       <c r="J23">
-        <v>97.8</v>
+        <v>97.95</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2812,13 +2640,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.4125550260808733</v>
+        <v>0.4202971034579807</v>
       </c>
       <c r="D24">
-        <v>0.2103893160820007</v>
+        <v>0.3584581613540649</v>
       </c>
       <c r="E24">
-        <v>92.375</v>
+        <v>92.125</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2827,10 +2655,10 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>0.002004524677991867</v>
+        <v>0.002041844493150711</v>
       </c>
       <c r="J24">
-        <v>84.98999999999999</v>
+        <v>84.92</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2841,13 +2669,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.4119177932540576</v>
+        <v>0.41305224991507</v>
       </c>
       <c r="D25">
-        <v>0.2204303741455078</v>
+        <v>0.3702356815338135</v>
       </c>
       <c r="E25">
-        <v>92.265</v>
+        <v>92.255</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2856,10 +2684,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>0.0003459804862737656</v>
+        <v>0.0003118030458688736</v>
       </c>
       <c r="J25">
-        <v>97.8</v>
+        <v>98.06999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2870,13 +2698,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.407797697517607</v>
+        <v>0.4116873349746069</v>
       </c>
       <c r="D26">
-        <v>0.2053717970848083</v>
+        <v>0.3665730357170105</v>
       </c>
       <c r="E26">
-        <v>92.42</v>
+        <v>92.235</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2885,10 +2713,10 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>0.001991116118431091</v>
+        <v>0.002022622787952423</v>
       </c>
       <c r="J26">
-        <v>85.67</v>
+        <v>85.38</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2899,13 +2727,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.4093589638008012</v>
+        <v>0.4106362513038847</v>
       </c>
       <c r="D27">
-        <v>0.2183609753847122</v>
+        <v>0.368002861738205</v>
       </c>
       <c r="E27">
-        <v>92.395</v>
+        <v>92.25999999999999</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2914,10 +2742,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>0.0003350072812288999</v>
+        <v>0.000316362576931715</v>
       </c>
       <c r="J27">
-        <v>97.81</v>
+        <v>98.06999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2928,13 +2756,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.4054211843013764</v>
+        <v>0.4083292887939347</v>
       </c>
       <c r="D28">
-        <v>0.1959753483533859</v>
+        <v>0.3675869703292847</v>
       </c>
       <c r="E28">
-        <v>92.24000000000001</v>
+        <v>92.25999999999999</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2943,10 +2771,10 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>0.001960021170973778</v>
+        <v>0.002022035610675812</v>
       </c>
       <c r="J28">
-        <v>85.81</v>
+        <v>85.19</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2957,13 +2785,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.4046112351947361</v>
+        <v>0.4111115267541673</v>
       </c>
       <c r="D29">
-        <v>0.1959977149963379</v>
+        <v>0.3712601065635681</v>
       </c>
       <c r="E29">
-        <v>92.47999999999999</v>
+        <v>92.34</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -2972,7 +2800,7 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>0.0003252614457160235</v>
+        <v>0.0003286120429635048</v>
       </c>
       <c r="J29">
         <v>97.89</v>
@@ -2986,13 +2814,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.4007827400830057</v>
+        <v>0.4151751211616728</v>
       </c>
       <c r="D30">
-        <v>0.198268324136734</v>
+        <v>0.3577239215373993</v>
       </c>
       <c r="E30">
-        <v>92.34999999999999</v>
+        <v>92.19</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3001,10 +2829,10 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>0.00193143128156662</v>
+        <v>0.001987932643294334</v>
       </c>
       <c r="J30">
-        <v>85.70999999999999</v>
+        <v>85.62</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3015,13 +2843,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.4000781176818742</v>
+        <v>0.4132286231716474</v>
       </c>
       <c r="D31">
-        <v>0.1931362599134445</v>
+        <v>0.3579360842704773</v>
       </c>
       <c r="E31">
-        <v>92.40000000000001</v>
+        <v>92.185</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3030,10 +2858,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>0.0003379516668617725</v>
+        <v>0.0003230447817593813</v>
       </c>
       <c r="J31">
-        <v>97.88</v>
+        <v>98.01000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3044,13 +2872,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.4004268278015984</v>
+        <v>0.4119398158788681</v>
       </c>
       <c r="D32">
-        <v>0.2069905698299408</v>
+        <v>0.3607338070869446</v>
       </c>
       <c r="E32">
-        <v>92.31</v>
+        <v>92.18000000000001</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3059,10 +2887,10 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>0.001895419564843178</v>
+        <v>0.001965429437160492</v>
       </c>
       <c r="J32">
-        <v>86.03</v>
+        <v>85.69</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3073,13 +2901,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.3963355922698975</v>
+        <v>0.4110589870479372</v>
       </c>
       <c r="D33">
-        <v>0.2019659578800201</v>
+        <v>0.3641414046287537</v>
       </c>
       <c r="E33">
-        <v>92.485</v>
+        <v>92.19</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3088,10 +2916,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>0.0003197092792019248</v>
+        <v>0.0003135610401630402</v>
       </c>
       <c r="J33">
-        <v>98.08</v>
+        <v>98.06999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3102,13 +2930,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.3943093317084842</v>
+        <v>0.408661067518923</v>
       </c>
       <c r="D34">
-        <v>0.203116163611412</v>
+        <v>0.3616621792316437</v>
       </c>
       <c r="E34">
-        <v>92.565</v>
+        <v>92.21000000000001</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3117,10 +2945,10 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>0.001957308369874954</v>
+        <v>0.001934376195073128</v>
       </c>
       <c r="J34">
-        <v>85.93000000000001</v>
+        <v>86.06</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3131,13 +2959,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.3935305972894033</v>
+        <v>0.4098859475718604</v>
       </c>
       <c r="D35">
-        <v>0.1890292912721634</v>
+        <v>0.3630174398422241</v>
       </c>
       <c r="E35">
-        <v>92.67</v>
+        <v>92.22999999999999</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3146,7 +2974,7 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>0.0003070914998650551</v>
+        <v>0.0003078222386538983</v>
       </c>
       <c r="J35">
         <v>97.98999999999999</v>
@@ -3160,13 +2988,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.3957791630427043</v>
+        <v>0.4137427620093028</v>
       </c>
       <c r="D36">
-        <v>0.1914216279983521</v>
+        <v>0.3578673303127289</v>
       </c>
       <c r="E36">
-        <v>92.63499999999999</v>
+        <v>92.17</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3175,10 +3003,10 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>0.001906416979432106</v>
+        <v>0.001926867946982384</v>
       </c>
       <c r="J36">
-        <v>86.15000000000001</v>
+        <v>85.91</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -3189,13 +3017,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.390762320889367</v>
+        <v>0.4087928405404091</v>
       </c>
       <c r="D37">
-        <v>0.1783737242221832</v>
+        <v>0.3587124943733215</v>
       </c>
       <c r="E37">
-        <v>92.55000000000001</v>
+        <v>92.20500000000001</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3204,10 +3032,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>0.0003247885985299945</v>
+        <v>0.0003089293986558914</v>
       </c>
       <c r="J37">
-        <v>97.95</v>
+        <v>98.04000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3218,13 +3046,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.3916979275809394</v>
+        <v>0.4119870892498228</v>
       </c>
       <c r="D38">
-        <v>0.1920478194952011</v>
+        <v>0.3586520254611969</v>
       </c>
       <c r="E38">
-        <v>92.505</v>
+        <v>92.215</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3233,10 +3061,10 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>0.001884182432293892</v>
+        <v>0.001891785362362862</v>
       </c>
       <c r="J38">
-        <v>86.16</v>
+        <v>86.18000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -3247,13 +3075,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0.3928311734398206</v>
+        <v>0.4110394979185528</v>
       </c>
       <c r="D39">
-        <v>0.192828893661499</v>
+        <v>0.3594796061515808</v>
       </c>
       <c r="E39">
-        <v>92.625</v>
+        <v>92.19</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3262,10 +3090,10 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>0.0003230371706187725</v>
+        <v>0.0003051390504464507</v>
       </c>
       <c r="J39">
-        <v>98.02</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -3276,13 +3104,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>0.3875108587079578</v>
+        <v>0.4103062067429225</v>
       </c>
       <c r="D40">
-        <v>0.2046722322702408</v>
+        <v>0.3600338697433472</v>
       </c>
       <c r="E40">
-        <v>92.77000000000001</v>
+        <v>92.21000000000001</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3291,10 +3119,10 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>0.001848973697423935</v>
+        <v>0.001867663723230362</v>
       </c>
       <c r="J40">
-        <v>86.26000000000001</v>
+        <v>86.22</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -3305,13 +3133,13 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>0.387223732802603</v>
+        <v>0.4127016456259622</v>
       </c>
       <c r="D41">
-        <v>0.2022966742515564</v>
+        <v>0.3577904105186462</v>
       </c>
       <c r="E41">
-        <v>92.69999999999999</v>
+        <v>92.19499999999999</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3320,10 +3148,10 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>0.0003100564444437623</v>
+        <v>0.0003046736506745219</v>
       </c>
       <c r="J41">
-        <v>97.95999999999999</v>
+        <v>98.01000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -3334,13 +3162,13 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0.3870951988961961</v>
+        <v>0.4123521175649431</v>
       </c>
       <c r="D42">
-        <v>0.1938570588827133</v>
+        <v>0.3579435348510742</v>
       </c>
       <c r="E42">
-        <v>92.745</v>
+        <v>92.2</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -3349,10 +3177,10 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>0.001856296864151955</v>
+        <v>0.001850357656180859</v>
       </c>
       <c r="J42">
-        <v>86.69</v>
+        <v>86.31999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3363,13 +3191,13 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>0.3803865682416492</v>
+        <v>0.4119623700446552</v>
       </c>
       <c r="D43">
-        <v>0.1812228560447693</v>
+        <v>0.3580541908740997</v>
       </c>
       <c r="E43">
-        <v>92.855</v>
+        <v>92.19499999999999</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -3378,10 +3206,10 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>0.0003086501954123378</v>
+        <v>0.000296726003754884</v>
       </c>
       <c r="J43">
-        <v>98.09999999999999</v>
+        <v>98.18000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -3392,13 +3220,13 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>0.3800032702419493</v>
+        <v>0.4164373421669006</v>
       </c>
       <c r="D44">
-        <v>0.1840970814228058</v>
+        <v>0.3581303656101227</v>
       </c>
       <c r="E44">
-        <v>92.82499999999999</v>
+        <v>92.205</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -3407,10 +3235,10 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>0.001819323971867561</v>
+        <v>0.001862228870391846</v>
       </c>
       <c r="J44">
-        <v>86.52</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -3421,13 +3249,13 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>0.3759157505962584</v>
+        <v>0.4141929089691904</v>
       </c>
       <c r="D45">
-        <v>0.1843367069959641</v>
+        <v>0.3581975698471069</v>
       </c>
       <c r="E45">
-        <v>92.78999999999999</v>
+        <v>92.205</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -3436,28 +3264,13 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>0.0003083389354869724</v>
+        <v>0.0003030667033046484</v>
       </c>
       <c r="J45">
         <v>98.04000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46">
-        <v>2</v>
-      </c>
-      <c r="B46">
-        <v>44</v>
-      </c>
-      <c r="C46">
-        <v>0.375476525525252</v>
-      </c>
-      <c r="D46">
-        <v>0.1836539655923843</v>
-      </c>
-      <c r="E46">
-        <v>92.895</v>
-      </c>
       <c r="G46">
         <v>2</v>
       </c>
@@ -3465,28 +3278,13 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>0.001815041127800941</v>
+        <v>0.001904450154304504</v>
       </c>
       <c r="J46">
-        <v>86.70999999999999</v>
+        <v>86.20999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47">
-        <v>2</v>
-      </c>
-      <c r="B47">
-        <v>45</v>
-      </c>
-      <c r="C47">
-        <v>0.3727637855211894</v>
-      </c>
-      <c r="D47">
-        <v>0.1880836933851242</v>
-      </c>
-      <c r="E47">
-        <v>92.83</v>
-      </c>
       <c r="G47">
         <v>1</v>
       </c>
@@ -3494,28 +3292,13 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>0.0003156871776096523</v>
+        <v>0.0002928779184818268</v>
       </c>
       <c r="J47">
-        <v>97.98</v>
+        <v>98.19</v>
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48">
-        <v>2</v>
-      </c>
-      <c r="B48">
-        <v>46</v>
-      </c>
-      <c r="C48">
-        <v>0.3856184958749347</v>
-      </c>
-      <c r="D48">
-        <v>0.1819704174995422</v>
-      </c>
-      <c r="E48">
-        <v>92.715</v>
-      </c>
       <c r="G48">
         <v>2</v>
       </c>
@@ -3523,28 +3306,13 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>0.001825536082684994</v>
+        <v>0.001898786628246307</v>
       </c>
       <c r="J48">
-        <v>86.55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49">
-        <v>2</v>
-      </c>
-      <c r="B49">
-        <v>47</v>
-      </c>
-      <c r="C49">
-        <v>0.378691923585203</v>
-      </c>
-      <c r="D49">
-        <v>0.1834530085325241</v>
-      </c>
-      <c r="E49">
-        <v>92.83</v>
-      </c>
+        <v>86.31999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10">
       <c r="G49">
         <v>1</v>
       </c>
@@ -3552,28 +3320,13 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>0.0002963154779747128</v>
+        <v>0.000296336133312434</v>
       </c>
       <c r="J49">
-        <v>98.03</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50">
-        <v>2</v>
-      </c>
-      <c r="B50">
-        <v>48</v>
-      </c>
-      <c r="C50">
-        <v>0.3765259713596768</v>
-      </c>
-      <c r="D50">
-        <v>0.1856606751680374</v>
-      </c>
-      <c r="E50">
-        <v>92.75999999999999</v>
-      </c>
+        <v>98.11</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10">
       <c r="G50">
         <v>2</v>
       </c>
@@ -3581,28 +3334,13 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>0.00181860431432724</v>
+        <v>0.001881359392404556</v>
       </c>
       <c r="J50">
-        <v>86.81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51">
-        <v>2</v>
-      </c>
-      <c r="B51">
-        <v>49</v>
-      </c>
-      <c r="C51">
-        <v>0.3790891081757016</v>
-      </c>
-      <c r="D51">
-        <v>0.1858065724372864</v>
-      </c>
-      <c r="E51">
-        <v>92.80500000000001</v>
-      </c>
+        <v>86.36</v>
+      </c>
+    </row>
+    <row r="51" spans="7:10">
       <c r="G51">
         <v>1</v>
       </c>
@@ -3610,28 +3348,13 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>0.0003051715197041631</v>
+        <v>0.0003002169873565435</v>
       </c>
       <c r="J51">
-        <v>98.02</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52">
-        <v>2</v>
-      </c>
-      <c r="B52">
-        <v>50</v>
-      </c>
-      <c r="C52">
-        <v>0.3749608218669891</v>
-      </c>
-      <c r="D52">
-        <v>0.1847739219665527</v>
-      </c>
-      <c r="E52">
-        <v>92.81999999999999</v>
-      </c>
+        <v>98.13</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10">
       <c r="G52">
         <v>2</v>
       </c>
@@ -3639,28 +3362,13 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>0.001822068692743778</v>
+        <v>0.0018796471118927</v>
       </c>
       <c r="J52">
-        <v>86.77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53">
-        <v>2</v>
-      </c>
-      <c r="B53">
-        <v>51</v>
-      </c>
-      <c r="C53">
-        <v>0.3875968052612411</v>
-      </c>
-      <c r="D53">
-        <v>0.1797836869955063</v>
-      </c>
-      <c r="E53">
-        <v>92.62</v>
-      </c>
+        <v>86.39</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10">
       <c r="G53">
         <v>1</v>
       </c>
@@ -3668,28 +3376,13 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>0.0003086677242070437</v>
+        <v>0.0002889399183914065</v>
       </c>
       <c r="J53">
-        <v>97.90000000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54">
-        <v>2</v>
-      </c>
-      <c r="B54">
-        <v>52</v>
-      </c>
-      <c r="C54">
-        <v>0.3828525638580322</v>
-      </c>
-      <c r="D54">
-        <v>0.1804680228233337</v>
-      </c>
-      <c r="E54">
-        <v>92.685</v>
-      </c>
+        <v>98.17</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10">
       <c r="G54">
         <v>2</v>
       </c>
@@ -3697,28 +3390,13 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>0.001810958406329155</v>
+        <v>0.001869182595610619</v>
       </c>
       <c r="J54">
-        <v>86.58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55">
-        <v>2</v>
-      </c>
-      <c r="B55">
-        <v>53</v>
-      </c>
-      <c r="C55">
-        <v>0.3832921908961402</v>
-      </c>
-      <c r="D55">
-        <v>0.180893748998642</v>
-      </c>
-      <c r="E55">
-        <v>92.73500000000001</v>
-      </c>
+        <v>86.34999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="7:10">
       <c r="G55">
         <v>1</v>
       </c>
@@ -3726,28 +3404,13 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>0.0003026900670491159</v>
+        <v>0.0002885684199631214</v>
       </c>
       <c r="J55">
-        <v>98.14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56">
-        <v>2</v>
-      </c>
-      <c r="B56">
-        <v>54</v>
-      </c>
-      <c r="C56">
-        <v>0.3848712535368072</v>
-      </c>
-      <c r="D56">
-        <v>0.1819756627082825</v>
-      </c>
-      <c r="E56">
-        <v>92.7</v>
-      </c>
+        <v>98.3</v>
+      </c>
+    </row>
+    <row r="56" spans="7:10">
       <c r="G56">
         <v>2</v>
       </c>
@@ -3755,28 +3418,13 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>0.001787226147949696</v>
+        <v>0.001873757880926132</v>
       </c>
       <c r="J56">
-        <v>86.81999999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57">
-        <v>2</v>
-      </c>
-      <c r="B57">
-        <v>55</v>
-      </c>
-      <c r="C57">
-        <v>0.3829865044024255</v>
-      </c>
-      <c r="D57">
-        <v>0.1824140995740891</v>
-      </c>
-      <c r="E57">
-        <v>92.70500000000001</v>
-      </c>
+        <v>86.38</v>
+      </c>
+    </row>
+    <row r="57" spans="7:10">
       <c r="G57">
         <v>1</v>
       </c>
@@ -3784,28 +3432,13 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>0.0003032549800351262</v>
+        <v>0.0002987984718754887</v>
       </c>
       <c r="J57">
-        <v>98.02</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58">
-        <v>2</v>
-      </c>
-      <c r="B58">
-        <v>56</v>
-      </c>
-      <c r="C58">
-        <v>0.3878508798612489</v>
-      </c>
-      <c r="D58">
-        <v>0.178602546453476</v>
-      </c>
-      <c r="E58">
-        <v>92.565</v>
-      </c>
+        <v>98.11</v>
+      </c>
+    </row>
+    <row r="58" spans="7:10">
       <c r="G58">
         <v>2</v>
       </c>
@@ -3813,28 +3446,13 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>0.001785239398479462</v>
+        <v>0.001895682910084724</v>
       </c>
       <c r="J58">
-        <v>86.68000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59">
-        <v>2</v>
-      </c>
-      <c r="B59">
-        <v>57</v>
-      </c>
-      <c r="C59">
-        <v>0.3860888290405273</v>
-      </c>
-      <c r="D59">
-        <v>0.178913339972496</v>
-      </c>
-      <c r="E59">
-        <v>92.57499999999999</v>
-      </c>
+        <v>86.27</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10">
       <c r="G59">
         <v>1</v>
       </c>
@@ -3842,28 +3460,13 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>0.000327242305316031</v>
+        <v>0.0002988000847399235</v>
       </c>
       <c r="J59">
-        <v>97.95999999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60">
-        <v>2</v>
-      </c>
-      <c r="B60">
-        <v>58</v>
-      </c>
-      <c r="C60">
-        <v>0.3876766961481836</v>
-      </c>
-      <c r="D60">
-        <v>0.1792510449886322</v>
-      </c>
-      <c r="E60">
-        <v>92.595</v>
-      </c>
+        <v>98.06999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="7:10">
       <c r="G60">
         <v>2</v>
       </c>
@@ -3871,28 +3474,13 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>0.00179460760653019</v>
+        <v>0.001894194549322128</v>
       </c>
       <c r="J60">
-        <v>86.84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61">
-        <v>2</v>
-      </c>
-      <c r="B61">
-        <v>59</v>
-      </c>
-      <c r="C61">
-        <v>0.3849989777803421</v>
-      </c>
-      <c r="D61">
-        <v>0.1794838756322861</v>
-      </c>
-      <c r="E61">
-        <v>92.62</v>
-      </c>
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="61" spans="7:10">
       <c r="G61">
         <v>1</v>
       </c>
@@ -3900,28 +3488,13 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>0.0003105539679527283</v>
+        <v>0.0002959681671112776</v>
       </c>
       <c r="J61">
-        <v>97.97</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62">
-        <v>2</v>
-      </c>
-      <c r="B62">
-        <v>60</v>
-      </c>
-      <c r="C62">
-        <v>0.3883998642034001</v>
-      </c>
-      <c r="D62">
-        <v>0.1795388609170914</v>
-      </c>
-      <c r="E62">
-        <v>92.62</v>
-      </c>
+        <v>98.14</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10">
       <c r="G62">
         <v>2</v>
       </c>
@@ -3929,13 +3502,13 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>0.001792197561264038</v>
+        <v>0.00189264403283596</v>
       </c>
       <c r="J62">
-        <v>86.65000000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+        <v>86.22</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10">
       <c r="G63">
         <v>1</v>
       </c>
@@ -3943,13 +3516,13 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>0.0003092163358815014</v>
+        <v>0.0002943256784230471</v>
       </c>
       <c r="J63">
-        <v>98.06</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+        <v>98.13</v>
+      </c>
+    </row>
+    <row r="64" spans="7:10">
       <c r="G64">
         <v>2</v>
       </c>
@@ -3957,10 +3530,10 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>0.001784458124637604</v>
+        <v>0.001890858536958695</v>
       </c>
       <c r="J64">
-        <v>86.91</v>
+        <v>86.25</v>
       </c>
     </row>
     <row r="65" spans="7:10">
@@ -3971,10 +3544,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>0.0002924084924161434</v>
+        <v>0.0002943092122673988</v>
       </c>
       <c r="J65">
-        <v>98.23999999999999</v>
+        <v>98.14</v>
       </c>
     </row>
     <row r="66" spans="7:10">
@@ -3985,10 +3558,10 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>0.001762505573034286</v>
+        <v>0.001891231296956539</v>
       </c>
       <c r="J66">
-        <v>86.89</v>
+        <v>86.28</v>
       </c>
     </row>
     <row r="67" spans="7:10">
@@ -3999,10 +3572,10 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>0.0002950335824862123</v>
+        <v>0.0002934251151978969</v>
       </c>
       <c r="J67">
-        <v>98.14</v>
+        <v>98.13</v>
       </c>
     </row>
     <row r="68" spans="7:10">
@@ -4013,10 +3586,10 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>0.001747186587750912</v>
+        <v>0.001888622120022774</v>
       </c>
       <c r="J68">
-        <v>87.2</v>
+        <v>86.33</v>
       </c>
     </row>
     <row r="69" spans="7:10">
@@ -4027,10 +3600,10 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>0.0003043826673179865</v>
+        <v>0.0002983365418389439</v>
       </c>
       <c r="J69">
-        <v>98.02</v>
+        <v>98.11</v>
       </c>
     </row>
     <row r="70" spans="7:10">
@@ -4041,10 +3614,10 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>0.001764963503181934</v>
+        <v>0.001895554453134537</v>
       </c>
       <c r="J70">
-        <v>87.25</v>
+        <v>86.23</v>
       </c>
     </row>
     <row r="71" spans="7:10">
@@ -4055,10 +3628,10 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>0.0003051936401054263</v>
+        <v>0.000297556433826685</v>
       </c>
       <c r="J71">
-        <v>98.09</v>
+        <v>98.12</v>
       </c>
     </row>
     <row r="72" spans="7:10">
@@ -4069,10 +3642,10 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>0.001747182123363018</v>
+        <v>0.001894767695665359</v>
       </c>
       <c r="J72">
-        <v>87.01000000000001</v>
+        <v>86.29000000000001</v>
       </c>
     </row>
     <row r="73" spans="7:10">
@@ -4083,10 +3656,10 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>0.0003030561545863747</v>
+        <v>0.0002973972853273153</v>
       </c>
       <c r="J73">
-        <v>98.06</v>
+        <v>98.13</v>
       </c>
     </row>
     <row r="74" spans="7:10">
@@ -4097,10 +3670,10 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>0.00176218816190958</v>
+        <v>0.00189411316215992</v>
       </c>
       <c r="J74">
-        <v>86.95</v>
+        <v>86.3</v>
       </c>
     </row>
     <row r="75" spans="7:10">
@@ -4111,10 +3684,10 @@
         <v>37</v>
       </c>
       <c r="I75">
-        <v>0.0003009426502510905</v>
+        <v>0.0002975984666496515</v>
       </c>
       <c r="J75">
-        <v>98.03</v>
+        <v>98.12</v>
       </c>
     </row>
     <row r="76" spans="7:10">
@@ -4125,10 +3698,10 @@
         <v>37</v>
       </c>
       <c r="I76">
-        <v>0.001748562666773796</v>
+        <v>0.001893622982501984</v>
       </c>
       <c r="J76">
-        <v>87.22</v>
+        <v>86.26000000000001</v>
       </c>
     </row>
     <row r="77" spans="7:10">
@@ -4139,10 +3712,10 @@
         <v>38</v>
       </c>
       <c r="I77">
-        <v>0.000294524022564292</v>
+        <v>0.0002969652501866221</v>
       </c>
       <c r="J77">
-        <v>98.11</v>
+        <v>98.12</v>
       </c>
     </row>
     <row r="78" spans="7:10">
@@ -4153,10 +3726,10 @@
         <v>38</v>
       </c>
       <c r="I78">
-        <v>0.001739977213740349</v>
+        <v>0.001892702840268612</v>
       </c>
       <c r="J78">
-        <v>87.43000000000001</v>
+        <v>86.3</v>
       </c>
     </row>
     <row r="79" spans="7:10">
@@ -4167,10 +3740,10 @@
         <v>39</v>
       </c>
       <c r="I79">
-        <v>0.0002938942056149244</v>
+        <v>0.0002986023270525038</v>
       </c>
       <c r="J79">
-        <v>98.20999999999999</v>
+        <v>98.11</v>
       </c>
     </row>
     <row r="80" spans="7:10">
@@ -4181,10 +3754,10 @@
         <v>39</v>
       </c>
       <c r="I80">
-        <v>0.001751277235150337</v>
+        <v>0.001895515444874764</v>
       </c>
       <c r="J80">
-        <v>87.19</v>
+        <v>86.28</v>
       </c>
     </row>
     <row r="81" spans="7:10">
@@ -4195,10 +3768,10 @@
         <v>40</v>
       </c>
       <c r="I81">
-        <v>0.0003061991321854293</v>
+        <v>0.0002985220147296786</v>
       </c>
       <c r="J81">
-        <v>97.98999999999999</v>
+        <v>98.11</v>
       </c>
     </row>
     <row r="82" spans="7:10">
@@ -4209,10 +3782,10 @@
         <v>40</v>
       </c>
       <c r="I82">
-        <v>0.00172022539973259</v>
+        <v>0.001895296221971512</v>
       </c>
       <c r="J82">
-        <v>87.5</v>
+        <v>86.29000000000001</v>
       </c>
     </row>
     <row r="83" spans="7:10">
@@ -4223,10 +3796,10 @@
         <v>41</v>
       </c>
       <c r="I83">
-        <v>0.0002780255299992859</v>
+        <v>0.0002985024722293019</v>
       </c>
       <c r="J83">
-        <v>98.31</v>
+        <v>98.11</v>
       </c>
     </row>
     <row r="84" spans="7:10">
@@ -4237,10 +3810,10 @@
         <v>41</v>
       </c>
       <c r="I84">
-        <v>0.001716813263297081</v>
+        <v>0.001895256951451302</v>
       </c>
       <c r="J84">
-        <v>87.40000000000001</v>
+        <v>86.28</v>
       </c>
     </row>
     <row r="85" spans="7:10">
@@ -4251,10 +3824,10 @@
         <v>42</v>
       </c>
       <c r="I85">
-        <v>0.0002830644864588976</v>
+        <v>0.0002984218385070562</v>
       </c>
       <c r="J85">
-        <v>98.27</v>
+        <v>98.11</v>
       </c>
     </row>
     <row r="86" spans="7:10">
@@ -4265,10 +3838,10 @@
         <v>42</v>
       </c>
       <c r="I86">
-        <v>0.001718809083104134</v>
+        <v>0.001895012348890305</v>
       </c>
       <c r="J86">
-        <v>87.38</v>
+        <v>86.3</v>
       </c>
     </row>
     <row r="87" spans="7:10">
@@ -4279,10 +3852,10 @@
         <v>43</v>
       </c>
       <c r="I87">
-        <v>0.0002774152295663953</v>
+        <v>0.0002983162375167012</v>
       </c>
       <c r="J87">
-        <v>98.2</v>
+        <v>98.11</v>
       </c>
     </row>
     <row r="88" spans="7:10">
@@ -4293,486 +3866,10 @@
         <v>43</v>
       </c>
       <c r="I88">
-        <v>0.001716896851360798</v>
+        <v>0.001894854426383972</v>
       </c>
       <c r="J88">
-        <v>87.38</v>
-      </c>
-    </row>
-    <row r="89" spans="7:10">
-      <c r="G89">
-        <v>1</v>
-      </c>
-      <c r="H89">
-        <v>44</v>
-      </c>
-      <c r="I89">
-        <v>0.0002775222592055797</v>
-      </c>
-      <c r="J89">
-        <v>98.23999999999999</v>
-      </c>
-    </row>
-    <row r="90" spans="7:10">
-      <c r="G90">
-        <v>2</v>
-      </c>
-      <c r="H90">
-        <v>44</v>
-      </c>
-      <c r="I90">
-        <v>0.001712706705927849</v>
-      </c>
-      <c r="J90">
-        <v>87.55</v>
-      </c>
-    </row>
-    <row r="91" spans="7:10">
-      <c r="G91">
-        <v>1</v>
-      </c>
-      <c r="H91">
-        <v>45</v>
-      </c>
-      <c r="I91">
-        <v>0.000271649937517941</v>
-      </c>
-      <c r="J91">
-        <v>98.3</v>
-      </c>
-    </row>
-    <row r="92" spans="7:10">
-      <c r="G92">
-        <v>2</v>
-      </c>
-      <c r="H92">
-        <v>45</v>
-      </c>
-      <c r="I92">
-        <v>0.001709025953710079</v>
-      </c>
-      <c r="J92">
-        <v>87.36</v>
-      </c>
-    </row>
-    <row r="93" spans="7:10">
-      <c r="G93">
-        <v>1</v>
-      </c>
-      <c r="H93">
-        <v>46</v>
-      </c>
-      <c r="I93">
-        <v>0.00029191027097404</v>
-      </c>
-      <c r="J93">
-        <v>98.19</v>
-      </c>
-    </row>
-    <row r="94" spans="7:10">
-      <c r="G94">
-        <v>2</v>
-      </c>
-      <c r="H94">
-        <v>46</v>
-      </c>
-      <c r="I94">
-        <v>0.00172568961083889</v>
-      </c>
-      <c r="J94">
-        <v>87.23999999999999</v>
-      </c>
-    </row>
-    <row r="95" spans="7:10">
-      <c r="G95">
-        <v>1</v>
-      </c>
-      <c r="H95">
-        <v>47</v>
-      </c>
-      <c r="I95">
-        <v>0.0002863474642857909</v>
-      </c>
-      <c r="J95">
-        <v>98.19</v>
-      </c>
-    </row>
-    <row r="96" spans="7:10">
-      <c r="G96">
-        <v>2</v>
-      </c>
-      <c r="H96">
-        <v>47</v>
-      </c>
-      <c r="I96">
-        <v>0.001720878235995769</v>
-      </c>
-      <c r="J96">
-        <v>87.47</v>
-      </c>
-    </row>
-    <row r="97" spans="7:10">
-      <c r="G97">
-        <v>1</v>
-      </c>
-      <c r="H97">
-        <v>48</v>
-      </c>
-      <c r="I97">
-        <v>0.0002831244127824903</v>
-      </c>
-      <c r="J97">
-        <v>98.22</v>
-      </c>
-    </row>
-    <row r="98" spans="7:10">
-      <c r="G98">
-        <v>2</v>
-      </c>
-      <c r="H98">
-        <v>48</v>
-      </c>
-      <c r="I98">
-        <v>0.001719535724818706</v>
-      </c>
-      <c r="J98">
-        <v>87.3</v>
-      </c>
-    </row>
-    <row r="99" spans="7:10">
-      <c r="G99">
-        <v>1</v>
-      </c>
-      <c r="H99">
-        <v>49</v>
-      </c>
-      <c r="I99">
-        <v>0.0002808222974650562</v>
-      </c>
-      <c r="J99">
-        <v>98.22</v>
-      </c>
-    </row>
-    <row r="100" spans="7:10">
-      <c r="G100">
-        <v>2</v>
-      </c>
-      <c r="H100">
-        <v>49</v>
-      </c>
-      <c r="I100">
-        <v>0.001717710238695145</v>
-      </c>
-      <c r="J100">
-        <v>87.39</v>
-      </c>
-    </row>
-    <row r="101" spans="7:10">
-      <c r="G101">
-        <v>1</v>
-      </c>
-      <c r="H101">
-        <v>50</v>
-      </c>
-      <c r="I101">
-        <v>0.000280009388923645</v>
-      </c>
-      <c r="J101">
-        <v>98.23</v>
-      </c>
-    </row>
-    <row r="102" spans="7:10">
-      <c r="G102">
-        <v>2</v>
-      </c>
-      <c r="H102">
-        <v>50</v>
-      </c>
-      <c r="I102">
-        <v>0.001718011757731438</v>
-      </c>
-      <c r="J102">
-        <v>87.41</v>
-      </c>
-    </row>
-    <row r="103" spans="7:10">
-      <c r="G103">
-        <v>1</v>
-      </c>
-      <c r="H103">
-        <v>51</v>
-      </c>
-      <c r="I103">
-        <v>0.000300288575142622</v>
-      </c>
-      <c r="J103">
-        <v>98.11</v>
-      </c>
-    </row>
-    <row r="104" spans="7:10">
-      <c r="G104">
-        <v>2</v>
-      </c>
-      <c r="H104">
-        <v>51</v>
-      </c>
-      <c r="I104">
-        <v>0.001738606494665146</v>
-      </c>
-      <c r="J104">
-        <v>87.13</v>
-      </c>
-    </row>
-    <row r="105" spans="7:10">
-      <c r="G105">
-        <v>1</v>
-      </c>
-      <c r="H105">
-        <v>52</v>
-      </c>
-      <c r="I105">
-        <v>0.0002962379168719053</v>
-      </c>
-      <c r="J105">
-        <v>98.15000000000001</v>
-      </c>
-    </row>
-    <row r="106" spans="7:10">
-      <c r="G106">
-        <v>2</v>
-      </c>
-      <c r="H106">
-        <v>52</v>
-      </c>
-      <c r="I106">
-        <v>0.00173427906781435</v>
-      </c>
-      <c r="J106">
-        <v>87.22</v>
-      </c>
-    </row>
-    <row r="107" spans="7:10">
-      <c r="G107">
-        <v>1</v>
-      </c>
-      <c r="H107">
-        <v>53</v>
-      </c>
-      <c r="I107">
-        <v>0.0002936962524428964</v>
-      </c>
-      <c r="J107">
-        <v>98.18000000000001</v>
-      </c>
-    </row>
-    <row r="108" spans="7:10">
-      <c r="G108">
-        <v>2</v>
-      </c>
-      <c r="H108">
-        <v>53</v>
-      </c>
-      <c r="I108">
-        <v>0.001731035101413727</v>
-      </c>
-      <c r="J108">
-        <v>87.29000000000001</v>
-      </c>
-    </row>
-    <row r="109" spans="7:10">
-      <c r="G109">
-        <v>1</v>
-      </c>
-      <c r="H109">
-        <v>54</v>
-      </c>
-      <c r="I109">
-        <v>0.0002922098577022552</v>
-      </c>
-      <c r="J109">
-        <v>98.18000000000001</v>
-      </c>
-    </row>
-    <row r="110" spans="7:10">
-      <c r="G110">
-        <v>2</v>
-      </c>
-      <c r="H110">
-        <v>54</v>
-      </c>
-      <c r="I110">
-        <v>0.001729061806201935</v>
-      </c>
-      <c r="J110">
-        <v>87.22</v>
-      </c>
-    </row>
-    <row r="111" spans="7:10">
-      <c r="G111">
-        <v>1</v>
-      </c>
-      <c r="H111">
-        <v>55</v>
-      </c>
-      <c r="I111">
-        <v>0.0002909149700775742</v>
-      </c>
-      <c r="J111">
-        <v>98.18000000000001</v>
-      </c>
-    </row>
-    <row r="112" spans="7:10">
-      <c r="G112">
-        <v>2</v>
-      </c>
-      <c r="H112">
-        <v>55</v>
-      </c>
-      <c r="I112">
-        <v>0.001727307780086994</v>
-      </c>
-      <c r="J112">
-        <v>87.23</v>
-      </c>
-    </row>
-    <row r="113" spans="7:10">
-      <c r="G113">
-        <v>1</v>
-      </c>
-      <c r="H113">
-        <v>56</v>
-      </c>
-      <c r="I113">
-        <v>0.0003041098801419139</v>
-      </c>
-      <c r="J113">
-        <v>98.09999999999999</v>
-      </c>
-    </row>
-    <row r="114" spans="7:10">
-      <c r="G114">
-        <v>2</v>
-      </c>
-      <c r="H114">
-        <v>56</v>
-      </c>
-      <c r="I114">
-        <v>0.001744784200191498</v>
-      </c>
-      <c r="J114">
-        <v>87.03</v>
-      </c>
-    </row>
-    <row r="115" spans="7:10">
-      <c r="G115">
-        <v>1</v>
-      </c>
-      <c r="H115">
-        <v>57</v>
-      </c>
-      <c r="I115">
-        <v>0.0003029109908267856</v>
-      </c>
-      <c r="J115">
-        <v>98.09999999999999</v>
-      </c>
-    </row>
-    <row r="116" spans="7:10">
-      <c r="G116">
-        <v>2</v>
-      </c>
-      <c r="H116">
-        <v>57</v>
-      </c>
-      <c r="I116">
-        <v>0.001742852000892162</v>
-      </c>
-      <c r="J116">
-        <v>87.05</v>
-      </c>
-    </row>
-    <row r="117" spans="7:10">
-      <c r="G117">
-        <v>1</v>
-      </c>
-      <c r="H117">
-        <v>58</v>
-      </c>
-      <c r="I117">
-        <v>0.0003019453085027635</v>
-      </c>
-      <c r="J117">
-        <v>98.09999999999999</v>
-      </c>
-    </row>
-    <row r="118" spans="7:10">
-      <c r="G118">
-        <v>2</v>
-      </c>
-      <c r="H118">
-        <v>58</v>
-      </c>
-      <c r="I118">
-        <v>0.001741138289868832</v>
-      </c>
-      <c r="J118">
-        <v>87.09</v>
-      </c>
-    </row>
-    <row r="119" spans="7:10">
-      <c r="G119">
-        <v>1</v>
-      </c>
-      <c r="H119">
-        <v>59</v>
-      </c>
-      <c r="I119">
-        <v>0.0003009773724712432</v>
-      </c>
-      <c r="J119">
-        <v>98.12</v>
-      </c>
-    </row>
-    <row r="120" spans="7:10">
-      <c r="G120">
-        <v>2</v>
-      </c>
-      <c r="H120">
-        <v>59</v>
-      </c>
-      <c r="I120">
-        <v>0.001739544656872749</v>
-      </c>
-      <c r="J120">
-        <v>87.12</v>
-      </c>
-    </row>
-    <row r="121" spans="7:10">
-      <c r="G121">
-        <v>1</v>
-      </c>
-      <c r="H121">
-        <v>60</v>
-      </c>
-      <c r="I121">
-        <v>0.0003001155889593065</v>
-      </c>
-      <c r="J121">
-        <v>98.13</v>
-      </c>
-    </row>
-    <row r="122" spans="7:10">
-      <c r="G122">
-        <v>2</v>
-      </c>
-      <c r="H122">
-        <v>60</v>
-      </c>
-      <c r="I122">
-        <v>0.001738374668359756</v>
-      </c>
-      <c r="J122">
-        <v>87.11</v>
+        <v>86.3</v>
       </c>
     </row>
   </sheetData>
